--- a/InputFiles/TC50_Canine_StudyOSA01-StudyParticipation_Diagnosis_StageOfDisease_NeuteredStatus.xlsx
+++ b/InputFiles/TC50_Canine_StudyOSA01-StudyParticipation_Diagnosis_StageOfDisease_NeuteredStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9E1958-8834-4C01-BB43-EF4CF7296153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D7A602-1A59-4BDF-BFFC-AE48355A8723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -570,22 +570,22 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="150.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" style="1" customWidth="1"/>
-    <col min="6" max="10" width="9.1796875" style="1"/>
-    <col min="11" max="11" width="21.26953125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="24.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="150.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.21875" style="1"/>
+    <col min="11" max="11" width="21.21875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="407" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="396" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="351.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="342" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -636,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
